--- a/src/modelinput/sto_tech_2050.xlsx
+++ b/src/modelinput/sto_tech_2050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/prianto_chalmers_se/Documents/Documents/99. RegModel/modelinput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{ACD66D21-D5B8-45C3-BD3A-35885435EC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E9DDA3-C714-466B-A72C-6166C185971B}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="8_{ACD66D21-D5B8-45C3-BD3A-35885435EC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82AF822D-19F8-41B2-8B29-979315D84BBE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{514A0534-691C-4995-81E2-0A52E1BB676C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{514A0534-691C-4995-81E2-0A52E1BB676C}"/>
   </bookViews>
   <sheets>
     <sheet name="sto_tech_" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +564,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -727,8 +733,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1130,7 +1137,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,10 +1188,10 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P1" t="s">
@@ -1233,10 +1240,10 @@
       <c r="M2">
         <v>30</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>1</v>
       </c>
       <c r="P2" t="s">
@@ -1285,10 +1292,10 @@
       <c r="M3">
         <v>2.9</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" t="s">
@@ -1333,10 +1340,10 @@
       <c r="M4">
         <v>0.08</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" t="s">
@@ -1382,10 +1389,10 @@
       <c r="M5">
         <v>50</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="P5" t="s">
@@ -1431,10 +1438,10 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="P6" t="s">
@@ -1479,10 +1486,10 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>1</v>
       </c>
       <c r="P7" t="s">
@@ -1527,10 +1534,10 @@
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>1</v>
       </c>
       <c r="P8" t="s">
@@ -1576,10 +1583,10 @@
       <c r="M9">
         <v>24</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>1</v>
       </c>
       <c r="P9" t="s">
@@ -1624,10 +1631,10 @@
       <c r="M10">
         <v>0.5</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>1</v>
       </c>
       <c r="P10" t="s">
